--- a/out9.xlsx
+++ b/out9.xlsx
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>xe-0/0/36</t>
+          <t>xe-0/0/35</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>xe-0/0/38</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>xe-0/0/40</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/40</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>xe-0/0/42</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/42</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>xe-0/0/44</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/44</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>xe-0/0/46</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
+          <t>xe-0/0/46</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>xe-0/0/48</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1749,9 +1749,21 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>xe-0/0/48</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
